--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem4/123/correct_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem4/123/correct_predictions_123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,42 +566,42 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Restart camera</t>
+          <t>Camera error</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Restart camera</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12-26</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -617,31 +617,31 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
+          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Battery not installed properly</t>
+          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>12-26</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -656,22 +656,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Return to home immediately</t>
+          <t>Battery not installed properly</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -707,31 +707,31 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this persists</t>
+          <t>Strong wind warning</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -746,22 +746,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Strong wind warning</t>
+          <t>Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>10-17</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -776,42 +776,42 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Lower altitude immediately and return to home manually</t>
+          <t>Aircraft unable to return to home automatically</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10-17</t>
+          <t>3-9</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+          <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically</t>
+          <t>No GPS signal</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -836,22 +836,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>No GPS signal</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -866,42 +866,42 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Unable to hover</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>No GPS signal Unable to hover Fly with caution .</t>
+          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Unable to hover</t>
+          <t>AirSense communication error</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -926,22 +926,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>AirSense communication error</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>12-14</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -956,42 +956,42 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Unable to display nearby manned aircraft and anti-collision warnings</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>12-14</t>
+          <t>3-11</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
+          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Unable to display nearby manned aircraft and anti-collision warnings</t>
+          <t>Max altitude and distance set</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3-11</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Max altitude and distance set</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1046,42 +1046,42 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Check the USB connection with aircraft</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1106,22 +1106,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Check the USB connection with aircraft</t>
+          <t>Failed to take off</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1136,22 +1136,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Failed to take off</t>
+          <t>Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>10-18</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1586,22 +1586,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Aircraft may be in violation of local laws and regulations</t>
+          <t>Flight altitude exceeds nnn</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4-13</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1616,52 +1616,52 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn</t>
+          <t>Aircraft may be in violation of local laws and regulations</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-13</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+          <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>Image quality affected</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>14-27</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1676,22 +1676,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Image quality affected</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1706,42 +1706,42 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Camera RCAM not connected</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
+          <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected</t>
+          <t>GPS signal weak</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1766,12 +1766,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>GPS signal weak</t>
+          <t>Hovering unstable</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1796,52 +1796,52 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Hovering unstable</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>GPS signal weak Hovering unstable Fly with caution .</t>
+          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Aircraft unable to fly stably</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1856,12 +1856,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Aircraft unable to fly stably</t>
+          <t>Strong wind warning</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1886,50 +1886,20 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Strong wind warning</t>
+          <t>Lower altitude immediately and manually return to home</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>8-15</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>19</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Lower altitude immediately and manually return to home</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>8-15</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem4/123/correct_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem4/123/correct_predictions_123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,42 +566,42 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Camera error</t>
+          <t>Restart camera</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Camera error AI Spot-Check failed Restart camera .</t>
+          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Restart camera</t>
+          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>12-26</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -617,31 +617,31 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Battery not installed properly</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12-26</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -656,22 +656,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Battery not installed properly</t>
+          <t>Return to home immediately</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -707,31 +707,31 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Strong wind warning</t>
+          <t>Contact DJI Support if this persists</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -746,22 +746,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Lower altitude immediately and return to home manually</t>
+          <t>Strong wind warning</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10-17</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -776,42 +776,42 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically</t>
+          <t>Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3-9</t>
+          <t>10-17</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>No GPS signal Unable to hover Fly with caution .</t>
+          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>No GPS signal</t>
+          <t>Aircraft unable to return to home automatically</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-9</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -836,22 +836,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>No GPS signal</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -866,42 +866,42 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Unable to hover</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
+          <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>AirSense communication error</t>
+          <t>Unable to hover</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -926,22 +926,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>AirSense communication error</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>12-14</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -956,42 +956,42 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Unable to display nearby manned aircraft and anti-collision warnings</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3-11</t>
+          <t>12-14</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
+          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Max altitude and distance set</t>
+          <t>Unable to display nearby manned aircraft and anti-collision warnings</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>3-11</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Max altitude and distance set</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1046,42 +1046,42 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Check the USB connection with aircraft</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1106,22 +1106,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Failed to take off</t>
+          <t>Check the USB connection with aircraft</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1136,22 +1136,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this error persists after restarting</t>
+          <t>Failed to take off</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>10-18</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1586,22 +1586,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn</t>
+          <t>Aircraft may be in violation of local laws and regulations</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-13</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1616,52 +1616,52 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Aircraft may be in violation of local laws and regulations</t>
+          <t>Flight altitude exceeds nnn</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>4-13</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Image quality affected</t>
+          <t>Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>14-27</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1676,22 +1676,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Image quality affected</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1706,42 +1706,42 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>GPS signal weak Hovering unstable Fly with caution .</t>
+          <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>GPS signal weak</t>
+          <t>Camera RCAM not connected</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1766,12 +1766,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Hovering unstable</t>
+          <t>GPS signal weak</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1796,52 +1796,52 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Hovering unstable</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
+          <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Aircraft unable to fly stably</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1856,12 +1856,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Strong wind warning</t>
+          <t>Aircraft unable to fly stably</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1886,20 +1886,50 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>Strong wind warning</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0-2</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>19</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>Lower altitude immediately and manually return to home</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>8-15</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
